--- a/src/main/webapp/会员导入样式.xlsx
+++ b/src/main/webapp/会员导入样式.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>注意：红色列为必填项，登录用户名不能重复</t>
     <rPh sb="0" eb="1">
@@ -617,125 +617,125 @@
     <t>001</t>
   </si>
   <si>
-    <t>福州泛泰锡</t>
-  </si>
-  <si>
-    <t>fzftxgs</t>
+    <t>福州泛泰锡贸易有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 王子乐 </t>
+  </si>
+  <si>
+    <t>0591-87559227</t>
+  </si>
+  <si>
+    <t>中国建设银行福州市城南支行营业厅</t>
+  </si>
+  <si>
+    <t>35001880007052534909</t>
+  </si>
+  <si>
+    <t>台江区鳌峰街道鳌江路8号福州金融街万达广场二期A1#写字楼9层09</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>福州鑫和园商贸有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张蒙君 </t>
+  </si>
+  <si>
+    <t>中国银行五一广场支行</t>
+  </si>
+  <si>
+    <t>409160217215</t>
+  </si>
+  <si>
+    <t>福州市鼓楼区杨桥路99号三友大厦10层南单元</t>
+  </si>
+  <si>
+    <t>常州化工常润</t>
+  </si>
+  <si>
+    <t>充电宝</t>
+  </si>
+  <si>
+    <t>统一规格</t>
+    <rPh sb="0" eb="1">
+      <t>xygg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fws</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一材质</t>
+    <rPh sb="0" eb="1">
+      <t>xygg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sfr</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <rPh sb="0" eb="1">
+      <t>yiai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qr.png</t>
+  </si>
+  <si>
+    <t>2017/11/01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/11/02</t>
+  </si>
+  <si>
+    <t>申请日期</t>
+    <rPh sb="0" eb="1">
+      <t>jhy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jja</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州泛泰锡2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州鑫和园2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州泛泰锡贸易有限公司2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州鑫和园商贸有限公司2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91350103066559932C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91350102579275046G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fzftxgs2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>15000033449</t>
+    <t>fzxhygs2</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>福州泛泰锡贸易有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 王子乐 </t>
-  </si>
-  <si>
-    <t>0591-87559227</t>
-  </si>
-  <si>
-    <t>91350103066559931C</t>
-  </si>
-  <si>
-    <t>中国建设银行福州市城南支行营业厅</t>
-  </si>
-  <si>
-    <t>35001880007052534909</t>
-  </si>
-  <si>
-    <t>台江区鳌峰街道鳌江路8号福州金融街万达广场二期A1#写字楼9层09</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>福州鑫和园</t>
-  </si>
-  <si>
-    <t>fzxhygs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>福州鑫和园商贸有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张蒙君 </t>
-  </si>
-  <si>
-    <t>91350102579275045G</t>
-  </si>
-  <si>
-    <t>中国银行五一广场支行</t>
-  </si>
-  <si>
-    <t>409160217215</t>
-  </si>
-  <si>
-    <t>福州市鼓楼区杨桥路99号三友大厦10层南单元</t>
-  </si>
-  <si>
-    <t>福州泛泰锡贸易有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>福州鑫和园商贸有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州化工常润</t>
-  </si>
-  <si>
-    <t>充电宝</t>
-  </si>
-  <si>
-    <t>统一规格</t>
-    <rPh sb="0" eb="1">
-      <t>xygg</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fws</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一材质</t>
-    <rPh sb="0" eb="1">
-      <t>xygg</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sfr</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东</t>
-    <rPh sb="0" eb="1">
-      <t>yiai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qr.png</t>
-  </si>
-  <si>
-    <t>2017/11/01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/11/02</t>
-  </si>
-  <si>
-    <t>申请日期</t>
-    <rPh sb="0" eb="1">
-      <t>jhy</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jja</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -849,14 +849,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1180,7 +1180,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>18</v>
@@ -1191,7 +1191,7 @@
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1227,90 +1227,86 @@
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E3" s="4">
         <v>123456</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="4">
         <v>123456</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L4" s="4">
         <v>83229502</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P4" s="4"/>
     </row>
@@ -1340,25 +1336,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="103" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1421,28 +1417,28 @@
         <v>42998</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>250</v>
@@ -1463,7 +1459,7 @@
         <v>42998</v>
       </c>
       <c r="Q3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
